--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwatkins\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E259F3BB-367B-4F3F-88E8-377F17BDAE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F589BB13-904F-4F76-9AAE-1D0B05F551F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5C9B27B7-6418-472F-A69F-17A1A4183606}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Country</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Johns Hopkins Hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.296717743018434, </t>
   </si>
 </sst>
 </file>
@@ -904,10 +901,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -930,8 +930,8 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
+      <c r="C2">
+        <v>39.296717743018398</v>
       </c>
       <c r="D2">
         <v>-76.592210489999999</v>
